--- a/harvard-clean-energy/Harvard top5 summary statistics.xlsx
+++ b/harvard-clean-energy/Harvard top5 summary statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubai\Documents\Programming\AI3SD\edbo\harvard-clean-energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93F198-1BDF-46DD-8739-A06F58208653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF8B86-8E15-4B26-8538-F6984723CE65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FE90495-F6BC-4B68-A5B3-8BC73ED342A6}"/>
   </bookViews>
@@ -16,48 +16,76 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$J$2:$J$51</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$T$2:$T$51</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$K$2:$K$51</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$P$2:$P$51</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$51</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$I$2:$I$51</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$S$2:$S$51</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$2:$B$51</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$G$2:$G$51</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$I$2:$I$51</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$S$2:$S$51</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$51</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$1</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$2:$F$51</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$K$1</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$K$2:$K$51</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$P$2:$P$51</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$E$2:$E$51</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$J$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$J$2:$J$51</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$T$2:$T$51</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$R$2:$R$51</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$2:$E$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$I$2:$I$51</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$S$2:$S$51</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$E$2:$E$51</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$J$2:$J$51</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$T$2:$T$51</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$K$2:$K$51</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$R$2:$R$51</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$G$2:$G$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$P$2:$P$51</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$I$2:$I$51</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$S$2:$S$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,22 +225,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -220,7 +248,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>2nd Highest</cx:v>
+          <cx:v>Rank 2</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -240,7 +268,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>2nd Highest</a:t>
+            <a:t>Rank 2</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -250,10 +278,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5B9BEAFA-DED5-42AB-9A84-9B0F10E89859}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>EI-1.2</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -263,10 +298,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1F70FB5E-C20F-4264-9E8D-9F4901BA7789}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>EI-2.2</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -276,10 +318,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CF01EEED-E5AE-4C14-9DFC-357B81CE182C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>EI-5.2</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -289,21 +338,57 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-ED6B-4F90-B6A9-D2C2148058B8}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>EI3.2</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.0500000007"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal Power Conversion Efficiency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Maximal Power Conversion Efficiency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -340,7 +425,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Highest</cx:v>
+          <cx:v>Rank 1</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -360,7 +445,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Highest</a:t>
+            <a:t>Rank 1</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -374,6 +459,13 @@
               <cx:v>EI-1.1</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -387,6 +479,13 @@
               <cx:v>EI-2.1</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -400,6 +499,13 @@
               <cx:v>EI-5.1</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -409,21 +515,57 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-E4FE-4B36-8EF2-C4D887075885}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>EI3.1</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.0500000007"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal Power Conversion Efficiency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Maximal Power Conversion Efficiency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -437,22 +579,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -460,7 +602,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>3rd Highest</cx:v>
+          <cx:v>Rank 3</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -480,7 +622,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>3rd Highest</a:t>
+            <a:t>Rank 3</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -490,10 +632,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5F46A924-81C4-47D6-BC95-76236882C72A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>EI-1.3</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -503,10 +652,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E58E2AAA-3AF1-41AF-8414-183DE685AED2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>EI-2.3</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -516,10 +672,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4B38CCB-A337-4AC3-A694-C007DDD11A10}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>EI-5.3</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -529,21 +692,57 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-EBE2-4597-976E-49B16E38CDDF}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>EI3.3</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.0500000007"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal Power Conversion Efficiency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Maximal Power Conversion Efficiency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -557,22 +756,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -580,7 +779,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>4th Highest</cx:v>
+          <cx:v>Rank 4</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -600,7 +799,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>4th Highest</a:t>
+            <a:t>Rank 4</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -610,10 +809,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1258FB85-5CED-4BC5-9BEB-438BE24D4999}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.35</cx:f>
               <cx:v>EI-1.4</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -623,10 +829,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{71FF4AB8-B6DC-4BA8-AD1A-2B86BA0A47D7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.37</cx:f>
               <cx:v>EI-2.4</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -636,10 +849,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B3D02B32-210C-4903-8149-B4D1731EE3CB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>EI-5.4</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -649,21 +869,57 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-E7A3-4DD2-B81E-D9B4F9AF33A6}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>E3I.4</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.0500000007"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling max="11.5" min="8.5"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal Power Conversion Efficiency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Maximal Power Conversion Efficiency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -677,22 +933,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -700,7 +956,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>5th Highest</cx:v>
+          <cx:v>Rank 5</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -720,7 +976,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>5th Highest</a:t>
+            <a:t>Rank 5</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -730,10 +986,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{02FF5A3F-0901-4638-918F-559843863698}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>EI-1.5</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -743,10 +1006,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EA67D4D2-C659-45D0-AE8D-0FDC679B872D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>EI-2.5</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -756,10 +1026,17 @@
         <cx:series layoutId="boxWhisker" uniqueId="{662CAB5D-476C-4189-96F1-1F4A7858C25D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>EI-5.5</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -769,21 +1046,57 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-8BBE-47AC-B321-E2FD4AA8D55A}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>E3I.5</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.0500000007"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling max="11.5" min="8.5"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Maximal Power Conversion Efficiency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Maximal Power Conversion Efficiency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
         <cx:txPr>
@@ -3595,8 +3908,8 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300540</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
@@ -3635,7 +3948,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5234940" y="1093470"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="3600000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3673,8 +3986,8 @@
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567240</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -3713,7 +4026,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="624840" y="1101090"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="3600000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3751,8 +4064,8 @@
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414840</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
@@ -3791,7 +4104,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="472440" y="3867150"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="3600000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3829,8 +4142,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399600</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3869,7 +4182,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5334000" y="3935730"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="3600000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3907,8 +4220,8 @@
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>102420</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
@@ -3947,7 +4260,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9913620" y="1070610"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="3600000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4279,9 +4592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40939077-E8B1-403F-9F33-49A52AA01548}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
